--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
+    <sheet name="服务器购买" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,54 +16,511 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Linux操作系统</t>
-  </si>
-  <si>
-    <t>阿里云购买服务器</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+  <si>
+    <r>
+      <t>Linux操作系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（使用虚拟机）</t>
+    </r>
+  </si>
+  <si>
+    <t>安装VMware虚拟机软件</t>
+  </si>
+  <si>
+    <t>360软件管家、百度搜索安装</t>
+  </si>
+  <si>
+    <t>CentOs官网下载</t>
+  </si>
+  <si>
+    <t>https://www.centos.org/download/</t>
+  </si>
+  <si>
+    <t>VMware安装CentOS镜像2</t>
+  </si>
+  <si>
+    <t>百度搜索VMware安装CentOS</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/LiCJ1113538586/article/details/124578639</t>
+  </si>
+  <si>
+    <t>VMware注册码</t>
+  </si>
+  <si>
+    <t>http://www.90lhd.com/108.html</t>
+  </si>
+  <si>
+    <t>FF31K-AHZD1-H8ETZ-8WWEZ-WUUVA</t>
+  </si>
+  <si>
+    <t>切换目录</t>
+  </si>
+  <si>
+    <t>根目录cd /    绝对路径以/开头cd /home/**
+用户目录cd ~
+返回上一级cd ..   相对路径以../或./开头
+当前目录cd ./</t>
+  </si>
+  <si>
+    <t>列出目录
+蓝色是文件夹</t>
+  </si>
+  <si>
+    <t>ls     ls /等于 cd /  + ls
+ls -a  查看全部文件，包括隐藏文件
+ls -l  查看全部文件，不包括隐藏文件</t>
+  </si>
+  <si>
+    <t>显示当前用户所在目录</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>解压包</t>
+  </si>
+  <si>
+    <t>tar -zxvf **.zip</t>
+  </si>
+  <si>
+    <t>把屏幕清干净</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>创建目录（文件夹）</t>
+  </si>
+  <si>
+    <t>mkdir w1
+mkdir -p w1/w2  创建多级目录</t>
+  </si>
+  <si>
+    <t>删除文件夹</t>
+  </si>
+  <si>
+    <t>rmdir **</t>
+  </si>
+  <si>
+    <t>移动文件或目录</t>
+  </si>
+  <si>
+    <r>
+      <t>rm -f ** 忽略不存在的文件，不会出现警告，强制删除
+rm -r ** 递归删除目录（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多级目录删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+rm -i ** 互动，删除询问是否删除
+rm -rf ** 系统中所有文件删除，删库跑路</t>
+    </r>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>cp 复制名 到达文件夹名</t>
+  </si>
+  <si>
+    <t>移动文件或者目录</t>
+  </si>
+  <si>
+    <t>mv 移动名 至文件夹/        移动文件夹
+mv -f ** 强制
+mv -u 只替换已经更新过的文件
+mv 旧名 新名   重命名</t>
+  </si>
+  <si>
+    <t>查看用户权限</t>
+  </si>
+  <si>
+    <r>
+      <t>ls -ll     或 ll
+d开头 是目录
+-开头  是文件
+l开头  是链接文档
+b开头  是接口设备
+c开头  是串行端口设备
+后面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9个属性分三组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一组三个：属主权限、属组权限、其他用户权限
+r读 第一个
+w写 第二个
+x执行 第三个
+-表示没有该权限</t>
+    </r>
+  </si>
+  <si>
+    <t>更改文件属组</t>
+  </si>
+  <si>
+    <t>chgrp -R 属组名 文件名      改回来chgrp -R 属组名 一样的属组名</t>
+  </si>
+  <si>
+    <t>更改文件属主，或更改文件属组</t>
+  </si>
+  <si>
+    <t>chown -R 属主名 文件名
+chown -R 属主名: 属组名 文件名</t>
+  </si>
+  <si>
+    <r>
+      <t>更改文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9个属性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chmod -R xyz 文件或目录
+r代表4  w代表2  x代表1  -代表0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chome 777 文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    表示三组都是可读可写可执行</t>
+    </r>
+  </si>
+  <si>
+    <t>查看网络配置</t>
+  </si>
+  <si>
+    <t>ifconfig    window操作系统是ipconfig</t>
+  </si>
+  <si>
+    <r>
+      <t>创建文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>touch f1</t>
+  </si>
+  <si>
+    <r>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>硬链接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+f2指向源文件f1
+f1源文件内容改变，f2也改变
+能备份，删了f1源文件，f2不受影响</t>
+    </r>
+  </si>
+  <si>
+    <t>ln f1 f2
+ls</t>
+  </si>
+  <si>
+    <r>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软链接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+f3指向源文件f1
+f1源文件内容改变，f3也改变
+删了f1源文件，f3访问不了</t>
+    </r>
+  </si>
+  <si>
+    <t>ln -s f1 f3
+ls</t>
+  </si>
+  <si>
+    <t>文件写入内容(文件不存在就创建并写内容)</t>
+  </si>
+  <si>
+    <t>echo "嘿嘿嘿" &gt;&gt; f1</t>
+  </si>
+  <si>
+    <t>阅读文件</t>
+  </si>
+  <si>
+    <t>cat 文件名    显示全部
+nl 文件名      显示全部，行号阅读
+more 文件名     翻页看，空格下一页  enter下一行  q退出</t>
+  </si>
+  <si>
+    <t>删除文件(-rf强制删除)</t>
+  </si>
+  <si>
+    <t>rm f1
+rm -rf f1</t>
+  </si>
+  <si>
+    <t>vim编辑器</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vim f1   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+i  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+输入完成  Esc退出输入模式
+x输出光标所在内容
+:set nu 设置行号
+:wq!  保存(w)并强制(!)退出(q)  冒号进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>底线命令模式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>下载xShell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程连接Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+  </si>
+  <si>
+    <t>下载xFtp文件上传</t>
+  </si>
+  <si>
+    <t>xShell文件》新建</t>
+  </si>
+  <si>
+    <t>主机就是阿里服务器上的公网ip 比如39.105.61.80
+点连接，输入账号密码
+显示Welcome to Alibaba Cloud就连接成功了
+这里操作Linux操作系统</t>
+  </si>
+  <si>
+    <r>
+      <t>购买阿里云服务器（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程Linux电脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>虚拟机安装后占用空间，也会有些卡顿，推荐购买服务器</t>
   </si>
   <si>
-    <t>https://www.aliyun.com/minisite/goods/?userCode=0phtycgr</t>
-  </si>
-  <si>
-    <t>安装VMware虚拟机软件</t>
-  </si>
-  <si>
-    <t>360软件管家、百度搜索安装</t>
-  </si>
-  <si>
-    <t>CentOs官网下载</t>
-  </si>
-  <si>
-    <t>https://www.centos.org/download/</t>
-  </si>
-  <si>
-    <t>VMware安装CentOS镜像2</t>
-  </si>
-  <si>
-    <t>百度搜索VMware安装CentOS</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/LiCJ1113538586/article/details/124578639</t>
-  </si>
-  <si>
-    <t>VMware注册码</t>
-  </si>
-  <si>
-    <t>http://www.90lhd.com/108.html</t>
-  </si>
-  <si>
-    <t>FF31K-AHZD1-H8ETZ-8WWEZ-WUUVA</t>
-  </si>
-  <si>
-    <t>查看安装了啥</t>
-  </si>
-  <si>
-    <t>ls /</t>
+    <r>
+      <t xml:space="preserve">https://www.aliyun.com/minisite/goods/?userCode=0phtycgr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支付宝扫码登录</t>
+    </r>
+  </si>
+  <si>
+    <t>https://finance.aliyun.com/order/payNewSuccess?order_id=218145829090273</t>
+  </si>
+  <si>
+    <t>管理控制台</t>
+  </si>
+  <si>
+    <t>https://ecs.console.aliyun.com/server/region/cn-beijing</t>
   </si>
 </sst>
 </file>
@@ -76,7 +533,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +559,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,14 +588,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +688,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,10 +1008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,16 +1020,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,16 +1038,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,112 +1056,136 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -754,6 +1246,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1477645</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="remote92992"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="17332960"/>
+          <a:ext cx="4266565" cy="1684655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,124 +1578,377 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="11" ht="57.6" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="12" ht="43.2" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="57.6" spans="1:2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="57.6" spans="1:2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="158.4" spans="1:2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="43.2" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="57.6" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" ht="57.6" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" ht="43.2" spans="1:2">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" ht="86.4" spans="1:2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" ht="57.6" spans="1:2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr"/>
-    <hyperlink ref="B10" r:id="rId2" display="http://www.90lhd.com/108.html"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://blog.csdn.net/LiCJ1113538586/article/details/124578639"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.centos.org/download/"/>
+    <hyperlink ref="B8" r:id="rId2" display="http://www.90lhd.com/108.html"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://blog.csdn.net/LiCJ1113538586/article/details/124578639"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.centos.org/download/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr&#10;支付宝扫码登录" tooltip="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr&#10;"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://finance.aliyun.com/order/payNewSuccess?order_id=218145829090273"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://ecs.console.aliyun.com/server/region/cn-beijing"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -16,9 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Linux操作系统</t>
     </r>
     <r>
@@ -61,6 +68,13 @@
   </si>
   <si>
     <t>FF31K-AHZD1-H8ETZ-8WWEZ-WUUVA</t>
+  </si>
+  <si>
+    <t>关机</t>
+  </si>
+  <si>
+    <t>sync    将数据由内存同步到硬盘中
+shutdown   同步后再关机</t>
   </si>
   <si>
     <t>切换目录</t>
@@ -116,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>rm -f ** 忽略不存在的文件，不会出现警告，强制删除
 rm -r ** 递归删除目录（</t>
     </r>
@@ -162,6 +183,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ls -ll     或 ll
 d开头 是目录
 -开头  是文件
@@ -210,6 +238,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>更改文件</t>
     </r>
     <r>
@@ -225,6 +260,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">chmod -R xyz 文件或目录
 r代表4  w代表2  x代表1  -代表0
 </t>
@@ -258,6 +300,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>创建文件（</t>
     </r>
     <r>
@@ -286,6 +335,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>创建</t>
     </r>
     <r>
@@ -318,6 +374,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>创建</t>
     </r>
     <r>
@@ -374,6 +437,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">vim f1   </t>
     </r>
     <r>
@@ -433,8 +503,117 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>下载xShell</t>
+    <t>自动创建用户主目录</t>
+  </si>
+  <si>
+    <t>useradd -m 用户名也是目录名</t>
+  </si>
+  <si>
+    <t>删除用户和该目录</t>
+  </si>
+  <si>
+    <t>userdel 用户名</t>
+  </si>
+  <si>
+    <t>修改用户的目录</t>
+  </si>
+  <si>
+    <t>usermod -d /home/234 用户名</t>
+  </si>
+  <si>
+    <t>阅读用户配置文件</t>
+  </si>
+  <si>
+    <t>cat /etc/passwd    用Tab补全语句</t>
+  </si>
+  <si>
+    <t>切换用户</t>
+  </si>
+  <si>
+    <t>su 用户名</t>
+  </si>
+  <si>
+    <t>退回上一个用户</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>查看主机名</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>修改主机名</t>
+  </si>
+  <si>
+    <t>hostname 新名</t>
+  </si>
+  <si>
+    <t>修改用户密码</t>
+  </si>
+  <si>
+    <t>passwd 用户名</t>
+  </si>
+  <si>
+    <t>冻结用户</t>
+  </si>
+  <si>
+    <t>passwd -l 用户名</t>
+  </si>
+  <si>
+    <t>创建用户组</t>
+  </si>
+  <si>
+    <t>groupadd 组名</t>
+  </si>
+  <si>
+    <t>删除组</t>
+  </si>
+  <si>
+    <t>groupdel 组名</t>
+  </si>
+  <si>
+    <t>阅读组配置文件</t>
+  </si>
+  <si>
+    <t>cat /etc/group</t>
+  </si>
+  <si>
+    <t>修改用户组（修改id,重命名）</t>
+  </si>
+  <si>
+    <t>groupmod -g 666 -n 旧组名 新组名</t>
+  </si>
+  <si>
+    <t>切换用户组</t>
+  </si>
+  <si>
+    <t>newgrp 组名</t>
+  </si>
+  <si>
+    <t>整体磁盘使用量</t>
+  </si>
+  <si>
+    <t>df  或  df -h</t>
+  </si>
+  <si>
+    <t>检查磁盘空间使用量</t>
+  </si>
+  <si>
+    <t>du -a  或 du</t>
+  </si>
+  <si>
+    <t>正在执行的进程信息</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ps -a    所有进程信息
+ps -au   所有进程信息,有用户
+ps -aux   所有进程信息,有用户和进程参数
+ps -ef  父进程信息
+</t>
     </r>
     <r>
       <rPr>
@@ -444,7 +623,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>远程连接Linux</t>
+      <t>pstree -pu</t>
     </r>
     <r>
       <rPr>
@@ -454,23 +633,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>工具</t>
-    </r>
-  </si>
-  <si>
-    <t>下载xFtp文件上传</t>
-  </si>
-  <si>
-    <t>xShell文件》新建</t>
-  </si>
-  <si>
-    <t>主机就是阿里服务器上的公网ip 比如39.105.61.80
-点连接，输入账号密码
-显示Welcome to Alibaba Cloud就连接成功了
-这里操作Linux操作系统</t>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve"> 进程树
+kill -9 进程id     结束进程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>购买阿里云服务器（</t>
     </r>
     <r>
@@ -514,13 +689,124 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>支付成功界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有管理控制台按钮</t>
+    </r>
+  </si>
+  <si>
     <t>https://finance.aliyun.com/order/payNewSuccess?order_id=218145829090273</t>
   </si>
   <si>
     <t>管理控制台</t>
   </si>
   <si>
-    <t>https://ecs.console.aliyun.com/server/region/cn-beijing</t>
+    <r>
+      <t xml:space="preserve">https://ecs.console.aliyun.com/home
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：root
+密码：Lu123456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>宝塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具（我选了xShell）</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.bt.cn/new/download.html</t>
+  </si>
+  <si>
+    <t>宝塔Linux面板安装教程</t>
+  </si>
+  <si>
+    <t>https://www.bt.cn/bbs/thread-19376-1-1.html</t>
+  </si>
+  <si>
+    <t>宝塔官网注册账号</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.bt.cn/admin/servers#wcu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：17817836856
+密码：Lu123456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>下载xShell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+  </si>
+  <si>
+    <t>下载xFtp文件上传</t>
   </si>
 </sst>
 </file>
@@ -550,18 +836,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1032,7 +1318,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1150,7 +1436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,26 +1449,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1252,16 +1547,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1477645</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1278,8 +1573,198 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="17332960"/>
-          <a:ext cx="4266565" cy="1684655"/>
+          <a:off x="8343900" y="4846320"/>
+          <a:ext cx="5060315" cy="1998345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="ali01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16510" y="1501140"/>
+          <a:ext cx="4136390" cy="1753870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4740275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="ali02"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4358640" y="1524000"/>
+          <a:ext cx="3178175" cy="1694180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4869180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>440690</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="ali03"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7665720" y="1546860"/>
+          <a:ext cx="4197350" cy="1687195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>577215</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="ali04"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53340" y="4792980"/>
+          <a:ext cx="3320415" cy="2246630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5264785</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="ali06"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="4945380"/>
+          <a:ext cx="4655185" cy="1045845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,10 +2063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1591,10 +2076,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1613,7 +2098,7 @@
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1629,13 +2114,13 @@
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1644,27 +2129,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="57.6" spans="1:2">
+    <row r="11" ht="28.8" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" s="8" t="s">
+    <row r="12" ht="57.6" spans="1:2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" ht="43.2" spans="1:2">
+      <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1672,7 +2157,7 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1684,200 +2169,298 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="57.6" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="57.6" spans="1:2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="57.6" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="158.4" spans="1:2">
+    <row r="21" ht="57.6" spans="1:2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="158.4" spans="1:2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="1:2">
-      <c r="A24" s="10" t="s">
+    <row r="24" ht="28.8" spans="1:2">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25" ht="43.2" spans="1:2">
+      <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B26" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" ht="57.6" spans="1:2">
-      <c r="A31" s="11" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" ht="57.6" spans="1:2">
-      <c r="A32" s="9" t="s">
+    <row r="29" ht="57.6" spans="1:2">
+      <c r="A29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="30" ht="57.6" spans="1:2">
+      <c r="A30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="43.2" spans="1:2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="1:2">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" ht="43.2" spans="1:2">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" ht="86.4" spans="1:2">
       <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" ht="86.4" spans="1:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
-        <v>55</v>
+      <c r="A47" t="s">
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" ht="57.6" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>58</v>
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" ht="86.4" spans="1:2">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1887,27 +2470,26 @@
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId2" display="http://www.90lhd.com/108.html"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://blog.csdn.net/LiCJ1113538586/article/details/124578639"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.centos.org/download/"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://www.90lhd.com/108.html"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://blog.csdn.net/LiCJ1113538586/article/details/124578639"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.centos.org/download/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -1915,43 +2497,123 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr&#10;支付宝扫码登录" tooltip="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr&#10;"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://finance.aliyun.com/order/payNewSuccess?order_id=218145829090273"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://ecs.console.aliyun.com/server/region/cn-beijing"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr&#10;支付宝扫码登录" tooltip="https://www.aliyun.com/minisite/goods/?userCode=0phtycgr&#10;"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://finance.aliyun.com/order/payNewSuccess?order_id=218145829090273"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://ecs.console.aliyun.com/home&#10;账号：root&#10;密码：Lu123456" tooltip="https://ecs.console.aliyun.com/home"/>
+    <hyperlink ref="B16" r:id="rId5" display="https://www.bt.cn/new/download.html"/>
+    <hyperlink ref="B18" r:id="rId6" display="https://www.bt.cn/admin/servers#wcu&#10;账号：17817836856&#10;密码：Lu123456" tooltip="https://www.bt.cn/admin/servers#wcu&#10;"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://www.bt.cn/bbs/thread-19376-1-1.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -4,29 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
     <sheet name="服务器购买" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="部署springboot项目" sheetId="3" r:id="rId3"/>
+    <sheet name="Tomcat安装" sheetId="4" r:id="rId4"/>
+    <sheet name="Docker(yum安装)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Linux操作系统</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
+  <si>
+    <r>
+      <t>Linux操作系统命令</t>
     </r>
     <r>
       <rPr>
@@ -101,13 +96,36 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>解压包</t>
-  </si>
-  <si>
-    <t>tar -zxvf **.zip</t>
-  </si>
-  <si>
-    <t>把屏幕清干净</t>
+    <r>
+      <t>解压包(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切换当前有解压包的目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>tar -zxvf 包名
+tar -xvf jdk-11_linux-x64_bin.tar.gz -C /usr/lib/jvm</t>
+  </si>
+  <si>
+    <t>把屏幕清干净（没删啥，放心用）</t>
   </si>
   <si>
     <t>clear</t>
@@ -609,6 +627,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ps -a    所有进程信息
 ps -au   所有进程信息,有用户
 ps -aux   所有进程信息,有用户和进程参数
@@ -674,6 +699,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://www.aliyun.com/minisite/goods/?userCode=0phtycgr
 </t>
     </r>
@@ -690,6 +723,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>支付成功界面</t>
     </r>
     <r>
@@ -711,6 +751,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://ecs.console.aliyun.com/home
 </t>
     </r>
@@ -728,6 +776,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>宝塔</t>
     </r>
     <r>
@@ -765,6 +820,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://www.bt.cn/admin/servers#wcu
 </t>
     </r>
@@ -782,6 +845,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下载xShell</t>
     </r>
     <r>
@@ -807,6 +877,340 @@
   </si>
   <si>
     <t>下载xFtp文件上传</t>
+  </si>
+  <si>
+    <t>xShell连接成功，访问宝塔
+1.有刷新问题，用这连接重新访问就行
+2.报错To return to remote host, enter "exit". 重启远程Linux</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:8888/127c074f
+username: e19j0iz8
+password: 2ae4fb28</t>
+  </si>
+  <si>
+    <r>
+      <t>安装JDK，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要与项目用的jdk版本一致</t>
+    </r>
+  </si>
+  <si>
+    <t>oracle官网下载jdk
+有rpm和gz后缀的选</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/downloads/</t>
+  </si>
+  <si>
+    <t>方式一：
+linux 安装 JDK (后缀rpm)</t>
+  </si>
+  <si>
+    <t>1.下载文件上面有
+2、查看当前java版本
+　　java -version
+3、查看jdk所在文件   因为查出的名称，下一步要用
+　　rpm -qa | grep jdk
+4、如果有，则删除
+　　rpm -e –nodeps 上一步的名称
+5、创建文件夹用于存放jdk
+　　mkdir /usr/lib/jvm
+6、使用xftp上传下载的文件到/home用户目录,解压到/usr/lib/jvm
+　　tar -xvf 下载包名 -C /usr/lib/jvm
+7、配置环境变量：
+　　vim /etc/profile
+8、输入以下内容：
+　　export JAVA_HOME=/usr/lib/jvm/jdk-11
+　　export PATH=$JAVA_HOME/bin:$PATH
+　　export CLASSPATH=.:$JAVA_HOME/lib/dt.jar:$JAVA_HOME/lib/tools.jar
+9、保存后，重启配置：
+　　source /etc/profile
+10、检查是否安装完成：
+　　java -version</t>
+  </si>
+  <si>
+    <r>
+      <t>方式二：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我用这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+linux安装jdk11 （后缀gz）</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/chris94/p/14797502.html
+1、下载linux版本的jdk11
+　　https://repo.huaweicloud.com/java/jdk/11+28/jdk-11_linux-x64_bin.tar.gz
+2、查看当前java版本
+　　java -version
+3、查看Java所在文件   因为查出的名称，下一步要用
+　　rpm -qa | grep java
+4、如果有，则删除
+　　rpm -e –nodeps 上一步的名称
+5、创建文件夹用于存放jdk
+　　mkdir /usr/lib/jvm
+6、使用xftp上传下载的文件到/home用户目录,解压到/usr/lib/jvm
+　　tar -xvf jdk-11_linux-x64_bin.tar.gz -C /usr/lib/jvm
+7、配置环境变量：
+　　vim /etc/profile
+8、输入以下内容：
+　　export JAVA_HOME=/usr/lib/jvm/jdk-11
+　　export PATH=$JAVA_HOME/bin:$PATH
+　　export CLASSPATH=.:$JAVA_HOME/lib/dt.jar:$JAVA_HOME/lib/tools.jar
+9、保存后，重启配置：
+　　source /etc/profile
+10、检查是否安装完成：
+　　java -version</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>1.查看所有开启的端口，并且阿里云配置安全组开放端口</t>
+  </si>
+  <si>
+    <t>firewall-cmd --list-ports</t>
+  </si>
+  <si>
+    <r>
+      <t>开启防火墙端口（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目用的端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>firewall-cmd --zone=public --add-port=8062/tcp --permanent
+含义：
+--zone    作用域
+--add-port=8062/tcp  添加端口
+--permanent   永久生效</t>
+  </si>
+  <si>
+    <t>重启防火墙</t>
+  </si>
+  <si>
+    <t>systemctl restart firewalld.service</t>
+  </si>
+  <si>
+    <t>运行springboot打包的项目
+包是Xftp上传到/home用户目录的
+切换/home目录</t>
+  </si>
+  <si>
+    <t>java -jar ./core-0.0.1-SNAPSHOT.jar</t>
+  </si>
+  <si>
+    <r>
+      <t>浏览器访问（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机用的是公网IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>http://39.108.174.145:8062/sky/season/list</t>
+  </si>
+  <si>
+    <t>防火墙Linux命令</t>
+  </si>
+  <si>
+    <t>查看防火墙服务状态</t>
+  </si>
+  <si>
+    <t>systemctl status firewalld</t>
+  </si>
+  <si>
+    <t>开启防火墙</t>
+  </si>
+  <si>
+    <t>service firewalld start</t>
+  </si>
+  <si>
+    <t>service firewalld restart</t>
+  </si>
+  <si>
+    <t>关闭防火墙</t>
+  </si>
+  <si>
+    <t>service firewalld stop</t>
+  </si>
+  <si>
+    <t>查看全部信息</t>
+  </si>
+  <si>
+    <t>firewall-cmd --list-all</t>
+  </si>
+  <si>
+    <t>Tomcat安装及环境配置（详细教程）</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/hjseo_seg/article/details/126080305</t>
+  </si>
+  <si>
+    <t>Apache Tomcat 9 软件下载（点tar.gz）</t>
+  </si>
+  <si>
+    <t>https://tomcat.apache.org/download-90.cgi</t>
+  </si>
+  <si>
+    <t>使用xftp上传下载的文件到/home用户目录,解压到/home目录</t>
+  </si>
+  <si>
+    <t>tar -zxvf apache-tomcat-9.0.65.tar.gz</t>
+  </si>
+  <si>
+    <t>cd /home/apache-tomcat-9.0.65/bin</t>
+  </si>
+  <si>
+    <t>启动Tomcat</t>
+  </si>
+  <si>
+    <t>./startup.sh</t>
+  </si>
+  <si>
+    <t>停止Tomcat</t>
+  </si>
+  <si>
+    <t>./startdown.sh</t>
+  </si>
+  <si>
+    <t>开启防火墙端口（是8080）</t>
+  </si>
+  <si>
+    <t>有了，部署篇看看，略</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:8080</t>
+  </si>
+  <si>
+    <t>购买域名，备案解析</t>
+  </si>
+  <si>
+    <t>还没，略</t>
+  </si>
+  <si>
+    <t>Docker官网下载</t>
+  </si>
+  <si>
+    <t>https://docs.docker.com/install/linux/docker-ce/centos/</t>
+  </si>
+  <si>
+    <t>检测Centos7版本信息</t>
+  </si>
+  <si>
+    <t>cat /etc/redhat-release</t>
+  </si>
+  <si>
+    <r>
+      <t>安装环境(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>yum -y install gcc
+yum -y install gcc-c++</t>
+  </si>
+  <si>
+    <t>卸载就版本（官网有）</t>
+  </si>
+  <si>
+    <t>yum remove docker \
+                  docker-client \
+                  docker-client-latest \
+                  docker-common \
+                  docker-latest \
+                  docker-latest-logrotate \
+                  docker-logrotate \
+                  docker-engine</t>
+  </si>
+  <si>
+    <t>软件包</t>
+  </si>
+  <si>
+    <t>yum install -y yum-utils</t>
+  </si>
+  <si>
+    <t>stable镜像仓库</t>
   </si>
 </sst>
 </file>
@@ -830,6 +1234,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -840,21 +1259,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1294,7 +1698,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1306,7 +1710,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1318,15 +1722,15 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,7 +1773,7 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,22 +1791,22 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1411,16 +1815,16 @@
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1429,7 +1833,7 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1440,25 +1844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1467,20 +1853,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1547,44 +1951,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="remote92992"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8343900" y="4846320"/>
-          <a:ext cx="5060315" cy="1998345"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>16510</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1604,7 +1970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1642,7 +2008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1680,7 +2046,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1718,14 +2084,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="4792980"/>
+          <a:off x="53340" y="5341620"/>
           <a:ext cx="3320415" cy="2246630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1738,19 +2104,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5399405</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="ali06"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459480" y="5501640"/>
+          <a:ext cx="4736465" cy="1064260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5264785</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240665</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7" descr="ali06"/>
+        <xdr:cNvPr id="9" name="图片 8" descr="ali07"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1763,8 +2167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3406140" y="4945380"/>
-          <a:ext cx="4655185" cy="1045845"/>
+          <a:off x="8343900" y="5494020"/>
+          <a:ext cx="3319145" cy="2083435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2065,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2076,10 +2480,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2093,15 +2497,15 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="5"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -2109,18 +2513,18 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="5"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2133,7 +2537,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2141,15 +2545,15 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2157,20 +2561,20 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15" ht="28.8" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -2181,7 +2585,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2197,7 +2601,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2213,7 +2617,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2221,7 +2625,7 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2229,7 +2633,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2237,15 +2641,15 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2253,12 +2657,12 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
@@ -2266,18 +2670,18 @@
       </c>
     </row>
     <row r="29" ht="57.6" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" ht="57.6" spans="1:2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2293,7 +2697,7 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2301,29 +2705,29 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" ht="86.4" spans="1:2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2331,7 +2735,7 @@
       <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2339,7 +2743,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2347,7 +2751,7 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2355,7 +2759,7 @@
       <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2363,7 +2767,7 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2371,7 +2775,7 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2384,7 +2788,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
@@ -2411,7 +2815,7 @@
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2459,7 +2863,7 @@
       <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2485,8 +2889,8 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2496,7 +2900,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
@@ -2504,16 +2908,16 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2521,45 +2925,45 @@
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2567,20 +2971,20 @@
       <c r="A17" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B19" t="s">
@@ -2595,8 +2999,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" ht="57.6" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2608,7 +3020,8 @@
     <hyperlink ref="B5" r:id="rId4" display="https://ecs.console.aliyun.com/home&#10;账号：root&#10;密码：Lu123456" tooltip="https://ecs.console.aliyun.com/home"/>
     <hyperlink ref="B16" r:id="rId5" display="https://www.bt.cn/new/download.html"/>
     <hyperlink ref="B18" r:id="rId6" display="https://www.bt.cn/admin/servers#wcu&#10;账号：17817836856&#10;密码：Lu123456" tooltip="https://www.bt.cn/admin/servers#wcu&#10;"/>
-    <hyperlink ref="B17" r:id="rId7" display="https://www.bt.cn/bbs/thread-19376-1-1.html"/>
+    <hyperlink ref="B21" r:id="rId7" display="http://39.108.174.145:8888/127c074f&#10;username: e19j0iz8&#10;password: 2ae4fb28" tooltip="http://39.108.174.145:8888/127c074f"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://www.bt.cn/bbs/thread-19376-1-1.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2620,16 +3033,326 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="40.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" ht="302.4" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" ht="331.2" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" ht="28.8" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" ht="43.2" spans="2:3">
+      <c r="B10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.oracle.com/java/technologies/downloads/"/>
+    <hyperlink ref="C11" r:id="rId2" display="http://39.108.174.145:8062/sky/season/list" tooltip="http://39.108.174.145:8062/sky/season/list"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://blog.csdn.net/hjseo_seg/article/details/126080305"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://tomcat.apache.org/download-90.cgi"/>
+    <hyperlink ref="B8" r:id="rId3" display="http://39.108.174.145:8080"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:2">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://docs.docker.com/install/linux/docker-ce/centos/" tooltip="https://docs.docker.com/install/linux/docker-ce/centos/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Linux操作系统命令</t>
     </r>
     <r>
@@ -97,6 +104,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>解压包(</t>
     </r>
     <r>
@@ -890,6 +904,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>安装JDK，</t>
     </r>
     <r>
@@ -939,6 +960,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方式二：</t>
     </r>
     <r>
@@ -999,6 +1027,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开启防火墙端口（</t>
     </r>
     <r>
@@ -1045,6 +1080,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>浏览器访问（</t>
     </r>
     <r>
@@ -1163,6 +1205,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>安装环境(</t>
     </r>
     <r>
@@ -1840,7 +1889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,9 +1902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1863,9 +1909,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2467,10 +2510,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2480,10 +2523,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2497,7 +2540,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2505,7 +2548,7 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -2513,7 +2556,7 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2521,7 +2564,7 @@
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2537,7 +2580,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2545,15 +2588,15 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2561,7 +2604,7 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2574,7 +2617,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -2585,7 +2628,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2601,7 +2644,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2617,7 +2660,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2625,7 +2668,7 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2633,7 +2676,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2641,7 +2684,7 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2649,7 +2692,7 @@
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2657,7 +2700,7 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2670,18 +2713,18 @@
       </c>
     </row>
     <row r="29" ht="57.6" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" ht="57.6" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2697,7 +2740,7 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2705,29 +2748,29 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" ht="86.4" spans="1:2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2735,7 +2778,7 @@
       <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2743,7 +2786,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2751,7 +2794,7 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2759,7 +2802,7 @@
       <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2767,7 +2810,7 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2775,7 +2818,7 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2815,7 +2858,7 @@
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2863,9 +2906,12 @@
       <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2889,7 +2935,7 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -2900,7 +2946,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
@@ -2908,13 +2954,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2925,39 +2971,39 @@
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
@@ -2976,10 +3022,10 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3000,15 +3046,15 @@
       </c>
     </row>
     <row r="21" ht="57.6" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3035,7 +3081,7 @@
   <sheetPr/>
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3047,7 +3093,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="28.8" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3058,33 +3104,33 @@
       </c>
     </row>
     <row r="3" ht="302.4" spans="1:3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" ht="331.2" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" ht="28.8" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C6" t="s">
@@ -3092,7 +3138,7 @@
       </c>
     </row>
     <row r="7" ht="72" spans="1:3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>120</v>
       </c>
@@ -3101,7 +3147,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>122</v>
       </c>
@@ -3110,10 +3156,10 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" ht="43.2" spans="2:3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C10" t="s">
@@ -3129,10 +3175,10 @@
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
@@ -3196,7 +3242,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3222,7 +3268,7 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B3" t="s">
@@ -3293,8 +3339,8 @@
   <sheetPr/>
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>

--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
     <sheet name="服务器购买" sheetId="2" r:id="rId2"/>
     <sheet name="部署springboot项目" sheetId="3" r:id="rId3"/>
     <sheet name="Tomcat安装" sheetId="4" r:id="rId4"/>
-    <sheet name="Docker(yum安装)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <r>
       <rPr>
@@ -1190,76 +1189,6 @@
   </si>
   <si>
     <t>还没，略</t>
-  </si>
-  <si>
-    <t>Docker官网下载</t>
-  </si>
-  <si>
-    <t>https://docs.docker.com/install/linux/docker-ce/centos/</t>
-  </si>
-  <si>
-    <t>检测Centos7版本信息</t>
-  </si>
-  <si>
-    <t>cat /etc/redhat-release</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>安装环境(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要网络</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>yum -y install gcc
-yum -y install gcc-c++</t>
-  </si>
-  <si>
-    <t>卸载就版本（官网有）</t>
-  </si>
-  <si>
-    <t>yum remove docker \
-                  docker-client \
-                  docker-client-latest \
-                  docker-common \
-                  docker-latest \
-                  docker-latest-logrotate \
-                  docker-logrotate \
-                  docker-engine</t>
-  </si>
-  <si>
-    <t>软件包</t>
-  </si>
-  <si>
-    <t>yum install -y yum-utils</t>
-  </si>
-  <si>
-    <t>stable镜像仓库</t>
   </si>
 </sst>
 </file>
@@ -1896,11 +1825,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2512,7 +2441,7 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -2580,7 +2509,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2588,15 +2517,15 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2604,15 +2533,15 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2628,7 +2557,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2660,7 +2589,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2676,7 +2605,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2684,12 +2613,12 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2700,12 +2629,12 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
@@ -2716,7 +2645,7 @@
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2724,7 +2653,7 @@
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2740,7 +2669,7 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2748,12 +2677,12 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" ht="86.4" spans="1:2">
       <c r="A35" t="s">
@@ -2764,13 +2693,13 @@
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2778,7 +2707,7 @@
       <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2786,7 +2715,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2794,7 +2723,7 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2802,7 +2731,7 @@
       <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2810,7 +2739,7 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2818,7 +2747,7 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2831,7 +2760,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
@@ -2858,7 +2787,7 @@
       <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3006,7 +2935,7 @@
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3030,7 +2959,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B19" t="s">
@@ -3054,7 +2983,7 @@
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3096,7 +3025,7 @@
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3105,7 +3034,7 @@
     </row>
     <row r="3" ht="302.4" spans="1:3">
       <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3123,14 +3052,14 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" ht="28.8" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C6" t="s">
@@ -3139,10 +3068,10 @@
     </row>
     <row r="7" ht="72" spans="1:3">
       <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3167,7 +3096,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3241,7 +3170,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3268,7 +3197,7 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B3" t="s">
@@ -3308,7 +3237,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3332,73 +3261,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" ht="115.2" spans="1:2">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://docs.docker.com/install/linux/docker-ce/centos/" tooltip="https://docs.docker.com/install/linux/docker-ce/centos/"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟机" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="155">
   <si>
     <r>
       <rPr>
@@ -764,14 +764,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">https://ecs.console.aliyun.com/home
 </t>
     </r>
@@ -1180,6 +1172,31 @@
   </si>
   <si>
     <t>有了，部署篇看看，略</t>
+  </si>
+  <si>
+    <r>
+      <t>浏览器访问（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机用的是公网IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>http://39.108.174.145:8080</t>
@@ -2441,7 +2458,7 @@
   <sheetPr/>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -2864,8 +2881,8 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3170,8 +3187,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3238,25 +3255,25 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://blog.csdn.net/hjseo_seg/article/details/126080305"/>
     <hyperlink ref="B2" r:id="rId2" display="https://tomcat.apache.org/download-90.cgi"/>
-    <hyperlink ref="B8" r:id="rId3" display="http://39.108.174.145:8080"/>
+    <hyperlink ref="B8" r:id="rId3" display="http://39.108.174.145:8080" tooltip="http://39.108.174.145:8080"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/Linux.xlsx
+++ b/java/Linux.xlsx
@@ -2881,7 +2881,7 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3028,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3188,7 +3188,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
